--- a/EditedHundredFiles/ComparisonOfCropHundys.xlsx
+++ b/EditedHundredFiles/ComparisonOfCropHundys.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junge037\Documents\USDA_NIFA\DayCent\Carbernza\OldRuns\OneHundFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junge037\Google Drive\Carbernza\EditedHundredFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="13170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="13170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SW0" sheetId="1" r:id="rId1"/>
     <sheet name="barley" sheetId="2" r:id="rId2"/>
     <sheet name="corn" sheetId="3" r:id="rId3"/>
+    <sheet name="IWG" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="144">
   <si>
     <t>SW0</t>
   </si>
@@ -417,6 +418,42 @@
   </si>
   <si>
     <t>New C10</t>
+  </si>
+  <si>
+    <t>IWG</t>
+  </si>
+  <si>
+    <t>Intermediate_wheatgrass</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>grass__cool_season_specie'PRDX(1)'</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>SG3</t>
+  </si>
+  <si>
+    <t>switchgrass_based_on_G2_grass_warm_season_species</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Johns</t>
   </si>
 </sst>
 </file>
@@ -8361,7 +8398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -8401,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <f>EXACT(L2,E2)</f>
+        <f t="shared" ref="G2:G33" si="0">EXACT(L2,E2)</f>
         <v>1</v>
       </c>
       <c r="H2">
@@ -8429,11 +8466,11 @@
         <v>2</v>
       </c>
       <c r="G3" t="b">
-        <f>EXACT(L3,E3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="0">D3-A3</f>
+        <f t="shared" ref="H3:H66" si="1">D3-A3</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -8457,11 +8494,11 @@
         <v>3</v>
       </c>
       <c r="G4" t="b">
-        <f>EXACT(L4,E4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -8485,11 +8522,11 @@
         <v>4</v>
       </c>
       <c r="G5" t="b">
-        <f>EXACT(L5,E5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
@@ -8513,11 +8550,11 @@
         <v>5</v>
       </c>
       <c r="G6" t="b">
-        <f>EXACT(L6,E6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
@@ -8541,11 +8578,11 @@
         <v>6</v>
       </c>
       <c r="G7" t="b">
-        <f>EXACT(L7,E7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7">
@@ -8569,11 +8606,11 @@
         <v>7</v>
       </c>
       <c r="G8" t="b">
-        <f>EXACT(L8,E8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8">
@@ -8597,11 +8634,11 @@
         <v>8</v>
       </c>
       <c r="G9" t="b">
-        <f>EXACT(L9,E9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9">
@@ -8625,11 +8662,11 @@
         <v>9</v>
       </c>
       <c r="G10" t="b">
-        <f>EXACT(L10,E10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10">
@@ -8653,11 +8690,11 @@
         <v>10</v>
       </c>
       <c r="G11" t="b">
-        <f>EXACT(L11,E11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11">
@@ -8681,11 +8718,11 @@
         <v>11</v>
       </c>
       <c r="G12" t="b">
-        <f>EXACT(L12,E12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12">
@@ -8709,11 +8746,11 @@
         <v>12</v>
       </c>
       <c r="G13" t="b">
-        <f>EXACT(L13,E13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13">
@@ -8737,11 +8774,11 @@
         <v>13</v>
       </c>
       <c r="G14" t="b">
-        <f>EXACT(L14,E14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14">
@@ -8765,11 +8802,11 @@
         <v>14</v>
       </c>
       <c r="G15" t="b">
-        <f>EXACT(L15,E15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15">
@@ -8793,11 +8830,11 @@
         <v>15</v>
       </c>
       <c r="G16" t="b">
-        <f>EXACT(L16,E16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16">
@@ -8821,11 +8858,11 @@
         <v>16</v>
       </c>
       <c r="G17" t="b">
-        <f>EXACT(L17,E17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17">
@@ -8849,11 +8886,11 @@
         <v>17</v>
       </c>
       <c r="G18" t="b">
-        <f>EXACT(L18,E18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18">
@@ -8877,11 +8914,11 @@
         <v>18</v>
       </c>
       <c r="G19" t="b">
-        <f>EXACT(L19,E19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19">
@@ -8905,11 +8942,11 @@
         <v>19</v>
       </c>
       <c r="G20" t="b">
-        <f>EXACT(L20,E20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20">
@@ -8933,11 +8970,11 @@
         <v>20</v>
       </c>
       <c r="G21" t="b">
-        <f>EXACT(L21,E21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21">
@@ -8961,11 +8998,11 @@
         <v>21</v>
       </c>
       <c r="G22" t="b">
-        <f>EXACT(L22,E22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22">
@@ -8989,11 +9026,11 @@
         <v>22</v>
       </c>
       <c r="G23" t="b">
-        <f>EXACT(L23,E23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23">
@@ -9017,11 +9054,11 @@
         <v>23</v>
       </c>
       <c r="G24" t="b">
-        <f>EXACT(L24,E24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24">
@@ -9045,11 +9082,11 @@
         <v>24</v>
       </c>
       <c r="G25" t="b">
-        <f>EXACT(L25,E25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25">
@@ -9073,11 +9110,11 @@
         <v>25</v>
       </c>
       <c r="G26" t="b">
-        <f>EXACT(L26,E26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26">
@@ -9101,11 +9138,11 @@
         <v>26</v>
       </c>
       <c r="G27" t="b">
-        <f>EXACT(L27,E27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27">
@@ -9129,11 +9166,11 @@
         <v>27</v>
       </c>
       <c r="G28" t="b">
-        <f>EXACT(L28,E28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28">
@@ -9157,11 +9194,11 @@
         <v>28</v>
       </c>
       <c r="G29" t="b">
-        <f>EXACT(L29,E29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29">
@@ -9185,11 +9222,11 @@
         <v>29</v>
       </c>
       <c r="G30" t="b">
-        <f>EXACT(L30,E30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30">
@@ -9213,11 +9250,11 @@
         <v>30</v>
       </c>
       <c r="G31" t="b">
-        <f>EXACT(L31,E31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31">
@@ -9241,11 +9278,11 @@
         <v>31</v>
       </c>
       <c r="G32" t="b">
-        <f>EXACT(L32,E32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -9269,11 +9306,11 @@
         <v>32</v>
       </c>
       <c r="G33" t="b">
-        <f>EXACT(L33,E33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33">
@@ -9297,11 +9334,11 @@
         <v>33</v>
       </c>
       <c r="G34" t="b">
-        <f>EXACT(L34,E34)</f>
+        <f t="shared" ref="G34:G65" si="2">EXACT(L34,E34)</f>
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34">
@@ -9325,11 +9362,11 @@
         <v>34</v>
       </c>
       <c r="G35" t="b">
-        <f>EXACT(L35,E35)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35">
@@ -9353,11 +9390,11 @@
         <v>35</v>
       </c>
       <c r="G36" t="b">
-        <f>EXACT(L36,E36)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36">
@@ -9381,11 +9418,11 @@
         <v>36</v>
       </c>
       <c r="G37" t="b">
-        <f>EXACT(L37,E37)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37">
@@ -9409,11 +9446,11 @@
         <v>37</v>
       </c>
       <c r="G38" t="b">
-        <f>EXACT(L38,E38)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38">
@@ -9437,11 +9474,11 @@
         <v>38</v>
       </c>
       <c r="G39" t="b">
-        <f>EXACT(L39,E39)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39">
@@ -9465,11 +9502,11 @@
         <v>39</v>
       </c>
       <c r="G40" t="b">
-        <f>EXACT(L40,E40)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40">
@@ -9493,11 +9530,11 @@
         <v>40</v>
       </c>
       <c r="G41" t="b">
-        <f>EXACT(L41,E41)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41">
@@ -9521,11 +9558,11 @@
         <v>41</v>
       </c>
       <c r="G42" t="b">
-        <f>EXACT(L42,E42)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42">
@@ -9549,11 +9586,11 @@
         <v>42</v>
       </c>
       <c r="G43" t="b">
-        <f>EXACT(L43,E43)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43">
@@ -9577,11 +9614,11 @@
         <v>43</v>
       </c>
       <c r="G44" t="b">
-        <f>EXACT(L44,E44)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44">
@@ -9605,11 +9642,11 @@
         <v>44</v>
       </c>
       <c r="G45" t="b">
-        <f>EXACT(L45,E45)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45">
@@ -9633,11 +9670,11 @@
         <v>45</v>
       </c>
       <c r="G46" t="b">
-        <f>EXACT(L46,E46)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46">
@@ -9661,11 +9698,11 @@
         <v>46</v>
       </c>
       <c r="G47" t="b">
-        <f>EXACT(L47,E47)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47">
@@ -9689,11 +9726,11 @@
         <v>47</v>
       </c>
       <c r="G48" t="b">
-        <f>EXACT(L48,E48)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48">
@@ -9717,11 +9754,11 @@
         <v>48</v>
       </c>
       <c r="G49" t="b">
-        <f>EXACT(L49,E49)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49">
@@ -9745,11 +9782,11 @@
         <v>49</v>
       </c>
       <c r="G50" t="b">
-        <f>EXACT(L50,E50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K50">
@@ -9773,11 +9810,11 @@
         <v>50</v>
       </c>
       <c r="G51" t="b">
-        <f>EXACT(L51,E51)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51">
@@ -9801,11 +9838,11 @@
         <v>51</v>
       </c>
       <c r="G52" t="b">
-        <f>EXACT(L52,E52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52">
@@ -9829,11 +9866,11 @@
         <v>52</v>
       </c>
       <c r="G53" t="b">
-        <f>EXACT(L53,E53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K53">
@@ -9857,11 +9894,11 @@
         <v>53</v>
       </c>
       <c r="G54" t="b">
-        <f>EXACT(L54,E54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K54">
@@ -9885,11 +9922,11 @@
         <v>54</v>
       </c>
       <c r="G55" t="b">
-        <f>EXACT(L55,E55)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K55">
@@ -9913,11 +9950,11 @@
         <v>55</v>
       </c>
       <c r="G56" t="b">
-        <f>EXACT(L56,E56)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K56">
@@ -9941,11 +9978,11 @@
         <v>56</v>
       </c>
       <c r="G57" t="b">
-        <f>EXACT(L57,E57)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K57">
@@ -9969,11 +10006,11 @@
         <v>57</v>
       </c>
       <c r="G58" t="b">
-        <f>EXACT(L58,E58)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K58">
@@ -9997,11 +10034,11 @@
         <v>58</v>
       </c>
       <c r="G59" t="b">
-        <f>EXACT(L59,E59)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K59">
@@ -10025,11 +10062,11 @@
         <v>59</v>
       </c>
       <c r="G60" t="b">
-        <f>EXACT(L60,E60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K60">
@@ -10053,11 +10090,11 @@
         <v>60</v>
       </c>
       <c r="G61" t="b">
-        <f>EXACT(L61,E61)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K61">
@@ -10081,11 +10118,11 @@
         <v>61</v>
       </c>
       <c r="G62" t="b">
-        <f>EXACT(L62,E62)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K62">
@@ -10109,11 +10146,11 @@
         <v>62</v>
       </c>
       <c r="G63" t="b">
-        <f>EXACT(L63,E63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K63">
@@ -10137,11 +10174,11 @@
         <v>63</v>
       </c>
       <c r="G64" t="b">
-        <f>EXACT(L64,E64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K64">
@@ -10165,11 +10202,11 @@
         <v>64</v>
       </c>
       <c r="G65" t="b">
-        <f>EXACT(L65,E65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K65">
@@ -10193,11 +10230,11 @@
         <v>65</v>
       </c>
       <c r="G66" t="b">
-        <f>EXACT(L66,E66)</f>
+        <f t="shared" ref="G66:G97" si="3">EXACT(L66,E66)</f>
         <v>1</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K66">
@@ -10221,11 +10258,11 @@
         <v>66</v>
       </c>
       <c r="G67" t="b">
-        <f>EXACT(L67,E67)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H111" si="1">D67-A67</f>
+        <f t="shared" ref="H67:H111" si="4">D67-A67</f>
         <v>0</v>
       </c>
       <c r="K67">
@@ -10249,11 +10286,11 @@
         <v>67</v>
       </c>
       <c r="G68" t="b">
-        <f>EXACT(L68,E68)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K68">
@@ -10277,11 +10314,11 @@
         <v>68</v>
       </c>
       <c r="G69" t="b">
-        <f>EXACT(L69,E69)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K69">
@@ -10305,11 +10342,11 @@
         <v>69</v>
       </c>
       <c r="G70" t="b">
-        <f>EXACT(L70,E70)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K70">
@@ -10333,11 +10370,11 @@
         <v>70</v>
       </c>
       <c r="G71" t="b">
-        <f>EXACT(L71,E71)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K71">
@@ -10361,11 +10398,11 @@
         <v>71</v>
       </c>
       <c r="G72" t="b">
-        <f>EXACT(L72,E72)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K72">
@@ -10389,11 +10426,11 @@
         <v>72</v>
       </c>
       <c r="G73" t="b">
-        <f>EXACT(L73,E73)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K73">
@@ -10417,11 +10454,11 @@
         <v>73</v>
       </c>
       <c r="G74" t="b">
-        <f>EXACT(L74,E74)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K74">
@@ -10445,11 +10482,11 @@
         <v>74</v>
       </c>
       <c r="G75" t="b">
-        <f>EXACT(L75,E75)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K75">
@@ -10473,11 +10510,11 @@
         <v>75</v>
       </c>
       <c r="G76" t="b">
-        <f>EXACT(L76,E76)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K76">
@@ -10501,11 +10538,11 @@
         <v>76</v>
       </c>
       <c r="G77" t="b">
-        <f>EXACT(L77,E77)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K77">
@@ -10529,11 +10566,11 @@
         <v>77</v>
       </c>
       <c r="G78" t="b">
-        <f>EXACT(L78,E78)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K78">
@@ -10557,11 +10594,11 @@
         <v>78</v>
       </c>
       <c r="G79" t="b">
-        <f>EXACT(L79,E79)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K79">
@@ -10585,11 +10622,11 @@
         <v>79</v>
       </c>
       <c r="G80" t="b">
-        <f>EXACT(L80,E80)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K80">
@@ -10613,11 +10650,11 @@
         <v>80</v>
       </c>
       <c r="G81" t="b">
-        <f>EXACT(L81,E81)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K81">
@@ -10641,11 +10678,11 @@
         <v>81</v>
       </c>
       <c r="G82" t="b">
-        <f>EXACT(L82,E82)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K82">
@@ -10669,11 +10706,11 @@
         <v>82</v>
       </c>
       <c r="G83" t="b">
-        <f>EXACT(L83,E83)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K83">
@@ -10697,11 +10734,11 @@
         <v>83</v>
       </c>
       <c r="G84" t="b">
-        <f>EXACT(L84,E84)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K84">
@@ -10725,11 +10762,11 @@
         <v>84</v>
       </c>
       <c r="G85" t="b">
-        <f>EXACT(L85,E85)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K85">
@@ -10753,11 +10790,11 @@
         <v>85</v>
       </c>
       <c r="G86" t="b">
-        <f>EXACT(L86,E86)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K86">
@@ -10781,11 +10818,11 @@
         <v>86</v>
       </c>
       <c r="G87" t="b">
-        <f>EXACT(L87,E87)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K87">
@@ -10809,11 +10846,11 @@
         <v>87</v>
       </c>
       <c r="G88" t="b">
-        <f>EXACT(L88,E88)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K88">
@@ -10837,11 +10874,11 @@
         <v>88</v>
       </c>
       <c r="G89" t="b">
-        <f>EXACT(L89,E89)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K89">
@@ -10865,11 +10902,11 @@
         <v>89</v>
       </c>
       <c r="G90" t="b">
-        <f>EXACT(L90,E90)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K90">
@@ -10893,11 +10930,11 @@
         <v>90</v>
       </c>
       <c r="G91" t="b">
-        <f>EXACT(L91,E91)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K91">
@@ -10921,11 +10958,11 @@
         <v>91</v>
       </c>
       <c r="G92" t="b">
-        <f>EXACT(L92,E92)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K92">
@@ -10949,11 +10986,11 @@
         <v>92</v>
       </c>
       <c r="G93" t="b">
-        <f>EXACT(L93,E93)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K93">
@@ -10977,11 +11014,11 @@
         <v>93</v>
       </c>
       <c r="G94" t="b">
-        <f>EXACT(L94,E94)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K94">
@@ -11005,11 +11042,11 @@
         <v>94</v>
       </c>
       <c r="G95" t="b">
-        <f>EXACT(L95,E95)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K95">
@@ -11033,11 +11070,11 @@
         <v>95</v>
       </c>
       <c r="G96" t="b">
-        <f>EXACT(L96,E96)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K96">
@@ -11061,11 +11098,11 @@
         <v>96</v>
       </c>
       <c r="G97" t="b">
-        <f>EXACT(L97,E97)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K97">
@@ -11089,11 +11126,11 @@
         <v>97</v>
       </c>
       <c r="G98" t="b">
-        <f>EXACT(L98,E98)</f>
+        <f t="shared" ref="G98:G109" si="5">EXACT(L98,E98)</f>
         <v>1</v>
       </c>
       <c r="H98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K98">
@@ -11117,11 +11154,11 @@
         <v>98</v>
       </c>
       <c r="G99" t="b">
-        <f>EXACT(L99,E99)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-85</v>
       </c>
       <c r="K99">
@@ -11145,11 +11182,11 @@
         <v>99</v>
       </c>
       <c r="G100" t="b">
-        <f>EXACT(L100,E100)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>650</v>
       </c>
       <c r="K100">
@@ -11173,11 +11210,11 @@
         <v>100</v>
       </c>
       <c r="G101" t="b">
-        <f>EXACT(L101,E101)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K101">
@@ -11201,11 +11238,11 @@
         <v>112</v>
       </c>
       <c r="G102" t="b">
-        <f>EXACT(L102,E102)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K102">
@@ -11229,11 +11266,11 @@
         <v>102</v>
       </c>
       <c r="G103" t="b">
-        <f>EXACT(L103,E103)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K103">
@@ -11257,11 +11294,11 @@
         <v>103</v>
       </c>
       <c r="G104" t="b">
-        <f>EXACT(L104,E104)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-400</v>
       </c>
       <c r="K104">
@@ -11285,11 +11322,11 @@
         <v>104</v>
       </c>
       <c r="G105" t="b">
-        <f>EXACT(L105,E105)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-400</v>
       </c>
       <c r="K105">
@@ -11313,11 +11350,11 @@
         <v>105</v>
       </c>
       <c r="G106" t="b">
-        <f>EXACT(L106,E106)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K106">
@@ -11341,11 +11378,11 @@
         <v>106</v>
       </c>
       <c r="G107" t="b">
-        <f>EXACT(L107,E107)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K107">
@@ -11369,11 +11406,11 @@
         <v>107</v>
       </c>
       <c r="G108" t="b">
-        <f>EXACT(L108,E108)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K108">
@@ -11397,11 +11434,11 @@
         <v>108</v>
       </c>
       <c r="G109" t="b">
-        <f>EXACT(L109,E109)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.622</v>
       </c>
       <c r="K109">
@@ -11419,7 +11456,7 @@
         <v>120</v>
       </c>
       <c r="H110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
       <c r="K110">
@@ -11437,7 +11474,7 @@
         <v>108</v>
       </c>
       <c r="H111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="K111">
@@ -11464,4 +11501,3840 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>A3-E3</f>
+        <v>299.5</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2.88</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>E3-Q3</f>
+        <v>-2.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="0">A4-E4</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U67" si="1">E4-Q4</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <f>E12-Q12</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>0.75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>-0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>0.4</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>90</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>0.2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>0.1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>0.3</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0.6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20">
+        <v>0.6</v>
+      </c>
+      <c r="R20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21">
+        <v>0.3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>400</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>400</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>400</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>200</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>390</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>390</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>390</v>
+      </c>
+      <c r="M24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <v>390</v>
+      </c>
+      <c r="R24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>340</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>340</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>340</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25">
+        <v>340</v>
+      </c>
+      <c r="R25" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>70</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>90</v>
+      </c>
+      <c r="R26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>390</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>390</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>390</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>390</v>
+      </c>
+      <c r="R27" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>340</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>340</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>340</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28">
+        <v>340</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>50</v>
+      </c>
+      <c r="R29" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>440</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>440</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>440</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30">
+        <v>440</v>
+      </c>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>440</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>440</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>440</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <v>440</v>
+      </c>
+      <c r="R31" t="s">
+        <v>29</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>120</v>
+      </c>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32">
+        <v>120</v>
+      </c>
+      <c r="R32" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>440</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>440</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>440</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33">
+        <v>440</v>
+      </c>
+      <c r="R33" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>440</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>440</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>440</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34">
+        <v>440</v>
+      </c>
+      <c r="R34" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>50</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35">
+        <v>50</v>
+      </c>
+      <c r="R35" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>390</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>390</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>390</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36">
+        <v>390</v>
+      </c>
+      <c r="R36" t="s">
+        <v>34</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>340</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>340</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>340</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37">
+        <v>340</v>
+      </c>
+      <c r="R37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>55</v>
+      </c>
+      <c r="M41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41">
+        <v>94</v>
+      </c>
+      <c r="R41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="1"/>
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>420</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>420</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>420</v>
+      </c>
+      <c r="M42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q42">
+        <v>420</v>
+      </c>
+      <c r="R42" t="s">
+        <v>40</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>420</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>420</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>420</v>
+      </c>
+      <c r="M43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43">
+        <v>420</v>
+      </c>
+      <c r="R43" t="s">
+        <v>41</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>42</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>44</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.02</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>0.02</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0.02</v>
+      </c>
+      <c r="M47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47">
+        <v>0.02</v>
+      </c>
+      <c r="R47" t="s">
+        <v>45</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="R48" t="s">
+        <v>46</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>0.26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0.26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q49">
+        <v>0.26</v>
+      </c>
+      <c r="R49" t="s">
+        <v>47</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="R50" t="s">
+        <v>48</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>0.26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0.26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51">
+        <v>0.26</v>
+      </c>
+      <c r="R51" t="s">
+        <v>49</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="M52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q52">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="R52" t="s">
+        <v>50</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.06</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>0.02</v>
+      </c>
+      <c r="F53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="L53">
+        <v>0.06</v>
+      </c>
+      <c r="M53" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q53">
+        <v>0.02</v>
+      </c>
+      <c r="R53" t="s">
+        <v>51</v>
+      </c>
+      <c r="S53" t="s">
+        <v>141</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54" t="s">
+        <v>52</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s">
+        <v>53</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56" t="s">
+        <v>54</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="L57">
+        <v>0.27</v>
+      </c>
+      <c r="M57" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57">
+        <v>0.05</v>
+      </c>
+      <c r="R57" t="s">
+        <v>55</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="L58">
+        <v>0.24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58">
+        <v>0.05</v>
+      </c>
+      <c r="R58" t="s">
+        <v>56</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="L59">
+        <v>0.21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q59">
+        <v>0.05</v>
+      </c>
+      <c r="R59" t="s">
+        <v>57</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>0.15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0.15</v>
+      </c>
+      <c r="M60" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60">
+        <v>0.1</v>
+      </c>
+      <c r="R60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>0.2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0.1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61">
+        <v>0.1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>59</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>0.95</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0.99</v>
+      </c>
+      <c r="M62" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62">
+        <v>0.99</v>
+      </c>
+      <c r="R62" t="s">
+        <v>60</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="1"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>0.2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0.1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R63" t="s">
+        <v>61</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>150</v>
+      </c>
+      <c r="F64" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>100</v>
+      </c>
+      <c r="M64" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q64">
+        <v>100</v>
+      </c>
+      <c r="R64" t="s">
+        <v>62</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>0.15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0.1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q65">
+        <v>0.01</v>
+      </c>
+      <c r="R65" t="s">
+        <v>63</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="1"/>
+        <v>0.13999999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>0.4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0.4</v>
+      </c>
+      <c r="M66" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q66">
+        <v>0.4</v>
+      </c>
+      <c r="R66" t="s">
+        <v>64</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>0.12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0.12</v>
+      </c>
+      <c r="M67" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q67">
+        <v>0.2</v>
+      </c>
+      <c r="R67" t="s">
+        <v>65</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="1"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.05</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>0.05</v>
+      </c>
+      <c r="F68" t="s">
+        <v>66</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J113" si="2">A68-E68</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0.05</v>
+      </c>
+      <c r="M68" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q68">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R68" t="s">
+        <v>66</v>
+      </c>
+      <c r="U68">
+        <f t="shared" ref="U68:U113" si="3">E68-Q68</f>
+        <v>-9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69" t="s">
+        <v>67</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0.2</v>
+      </c>
+      <c r="M70" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q70">
+        <v>0.43</v>
+      </c>
+      <c r="R70" t="s">
+        <v>68</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="3"/>
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>69</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>69</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>70</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.05</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>0.05</v>
+      </c>
+      <c r="F73" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0.05</v>
+      </c>
+      <c r="M73" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q73">
+        <v>0.05</v>
+      </c>
+      <c r="R73" t="s">
+        <v>71</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>72</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>72</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>-27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>73</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-27</v>
+      </c>
+      <c r="M75" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q75">
+        <v>-15</v>
+      </c>
+      <c r="R75" t="s">
+        <v>73</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>1.3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1.3</v>
+      </c>
+      <c r="M76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76" t="s">
+        <v>74</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>0.77</v>
+      </c>
+      <c r="F77" t="s">
+        <v>75</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0.77</v>
+      </c>
+      <c r="M77" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q77">
+        <v>0.77</v>
+      </c>
+      <c r="R77" t="s">
+        <v>75</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>76</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79" t="s">
+        <v>77</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>78</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>78</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1.3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>1.3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1.3</v>
+      </c>
+      <c r="M81" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81" t="s">
+        <v>79</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s">
+        <v>80</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>81</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84" t="s">
+        <v>82</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1.525E-2</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>1.525E-2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1.525E-2</v>
+      </c>
+      <c r="M85" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q85">
+        <v>0.1</v>
+      </c>
+      <c r="R85" t="s">
+        <v>83</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="3"/>
+        <v>-8.4750000000000006E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>0.3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0.3</v>
+      </c>
+      <c r="M86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q86">
+        <v>0.15</v>
+      </c>
+      <c r="R86" t="s">
+        <v>84</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>0.16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0.16</v>
+      </c>
+      <c r="M87" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87">
+        <v>0.05</v>
+      </c>
+      <c r="R87" t="s">
+        <v>85</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
+        <v>86</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
+        <v>87</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1.25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>1.25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1.25</v>
+      </c>
+      <c r="M90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q90">
+        <v>1.25</v>
+      </c>
+      <c r="R90" t="s">
+        <v>88</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s">
+        <v>89</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>90</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92" t="s">
+        <v>90</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>2.5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>91</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>2.5</v>
+      </c>
+      <c r="M93" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q93">
+        <v>1.5</v>
+      </c>
+      <c r="R93" t="s">
+        <v>91</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>0.23</v>
+      </c>
+      <c r="F94" t="s">
+        <v>92</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0.23</v>
+      </c>
+      <c r="M94" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q94">
+        <v>0.23</v>
+      </c>
+      <c r="R94" t="s">
+        <v>92</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>0.23</v>
+      </c>
+      <c r="F95" t="s">
+        <v>93</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0.23</v>
+      </c>
+      <c r="M95" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q95">
+        <v>0.23</v>
+      </c>
+      <c r="R95" t="s">
+        <v>93</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>0.23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>94</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0.23</v>
+      </c>
+      <c r="M96" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q96">
+        <v>0.23</v>
+      </c>
+      <c r="R96" t="s">
+        <v>94</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.25</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>0.25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>95</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0.25</v>
+      </c>
+      <c r="M97" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q97">
+        <v>0.25</v>
+      </c>
+      <c r="R97" t="s">
+        <v>95</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>96</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q98">
+        <v>6</v>
+      </c>
+      <c r="R98" t="s">
+        <v>96</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0.5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>0.5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>97</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0.5</v>
+      </c>
+      <c r="M99" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99" t="s">
+        <v>97</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100">
+        <v>100</v>
+      </c>
+      <c r="F100" t="s">
+        <v>118</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>100</v>
+      </c>
+      <c r="M100" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q100">
+        <v>10</v>
+      </c>
+      <c r="R100" t="s">
+        <v>98</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>750</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>800</v>
+      </c>
+      <c r="F101" t="s">
+        <v>99</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="2"/>
+        <v>-50</v>
+      </c>
+      <c r="L101">
+        <v>1000</v>
+      </c>
+      <c r="M101" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q101">
+        <v>1500</v>
+      </c>
+      <c r="R101" t="s">
+        <v>99</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="3"/>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
+        <v>100</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q102">
+        <v>7</v>
+      </c>
+      <c r="R102" t="s">
+        <v>100</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>112</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q103">
+        <v>10</v>
+      </c>
+      <c r="R103" t="s">
+        <v>101</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+      <c r="F104" t="s">
+        <v>102</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>30</v>
+      </c>
+      <c r="M104" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q104">
+        <v>30</v>
+      </c>
+      <c r="R104" t="s">
+        <v>102</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>300</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <v>500</v>
+      </c>
+      <c r="F105" t="s">
+        <v>103</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="2"/>
+        <v>-200</v>
+      </c>
+      <c r="L105">
+        <v>300</v>
+      </c>
+      <c r="M105" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q105">
+        <v>10</v>
+      </c>
+      <c r="R105" t="s">
+        <v>103</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>600</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106">
+        <v>600</v>
+      </c>
+      <c r="F106" t="s">
+        <v>104</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>600</v>
+      </c>
+      <c r="M106" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q106">
+        <v>20</v>
+      </c>
+      <c r="R106" t="s">
+        <v>104</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E107">
+        <v>120</v>
+      </c>
+      <c r="F107" t="s">
+        <v>105</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>120</v>
+      </c>
+      <c r="M107" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q107">
+        <v>120</v>
+      </c>
+      <c r="R107" t="s">
+        <v>105</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <v>0.5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>106</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0.5</v>
+      </c>
+      <c r="M108" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q108">
+        <v>0.5</v>
+      </c>
+      <c r="R108" t="s">
+        <v>106</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109">
+        <v>0.12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>107</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0.12</v>
+      </c>
+      <c r="M109" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q109">
+        <v>0.12</v>
+      </c>
+      <c r="R109" t="s">
+        <v>107</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.378</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110">
+        <v>0.378</v>
+      </c>
+      <c r="F110" t="s">
+        <v>119</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0.378</v>
+      </c>
+      <c r="M110" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110" t="s">
+        <v>108</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="3"/>
+        <v>-0.622</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>120</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>9</v>
+      </c>
+      <c r="M111" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q111">
+        <v>2</v>
+      </c>
+      <c r="R111" t="s">
+        <v>109</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>108</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q112">
+        <v>1.2</v>
+      </c>
+      <c r="R112" t="s">
+        <v>110</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0.15</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="E113">
+        <v>0.15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>121</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0.15</v>
+      </c>
+      <c r="M113" t="s">
+        <v>121</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>